--- a/data/dadada.xlsx
+++ b/data/dadada.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4460E5-2F6B-4E0A-B98D-1F0CDAF2C735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A774C5-1596-48DB-B67D-DFCF84F1E0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>name</t>
   </si>
@@ -34,28 +34,19 @@
     <t>id</t>
   </si>
   <si>
-    <t>attachments</t>
-  </si>
-  <si>
-    <t>file name</t>
-  </si>
-  <si>
     <t>عاطف العباسي</t>
   </si>
   <si>
     <t>مهندس</t>
   </si>
   <si>
-    <t>crt_Part_1.pdf</t>
-  </si>
-  <si>
-    <t>Abbasi's-affection</t>
-  </si>
-  <si>
     <t>الاستاذ</t>
   </si>
   <si>
-    <t>no5510425@gmail.com</t>
+    <t>islambadran39@gmail.com</t>
+  </si>
+  <si>
+    <t>dev@una-oic.org</t>
   </si>
 </sst>
 </file>
@@ -408,15 +399,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -432,39 +423,45 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
       </c>
       <c r="E2">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
-        <v>10</v>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{B64F4706-9BF3-4EB8-A06D-2B9D4CE0D02E}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{FA7AF2BE-BFAD-43B9-8BD1-221F0E2FCB79}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -476,7 +473,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -488,7 +485,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/dadada.xlsx
+++ b/data/dadada.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A774C5-1596-48DB-B67D-DFCF84F1E0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7821DDB0-0797-45BF-B391-AA6F7A92F459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>name</t>
   </si>
@@ -34,19 +34,22 @@
     <t>id</t>
   </si>
   <si>
-    <t>عاطف العباسي</t>
-  </si>
-  <si>
     <t>مهندس</t>
   </si>
   <si>
-    <t>الاستاذ</t>
-  </si>
-  <si>
     <t>islambadran39@gmail.com</t>
   </si>
   <si>
-    <t>dev@una-oic.org</t>
+    <t>islam</t>
+  </si>
+  <si>
+    <t>eng</t>
+  </si>
+  <si>
+    <t>attachments</t>
+  </si>
+  <si>
+    <t>file.txt</t>
   </si>
 </sst>
 </file>
@@ -399,15 +402,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="2.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -423,45 +429,36 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
       <c r="E2">
         <v>5</v>
       </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{B64F4706-9BF3-4EB8-A06D-2B9D4CE0D02E}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{FA7AF2BE-BFAD-43B9-8BD1-221F0E2FCB79}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
